--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800FEFB-C353-422F-98A7-AFBE3B6BF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07645C14-AD4A-4E21-8F70-43128ED44FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2BC2D4CF-B960-4875-9D79-8FB5AFAC3564}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2B49397A-F80C-45CD-A6AD-20314458DEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC9FB4-E1DF-435D-8F89-C5FD562C28C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09943EA4-6F68-4463-9AB6-6CC975DF6134}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07645C14-AD4A-4E21-8F70-43128ED44FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C613B7A9-D549-4CE7-A569-0402374DC0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2B49397A-F80C-45CD-A6AD-20314458DEEA}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{17AFBBC4-8279-4026-8E03-2600C9A53B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09943EA4-6F68-4463-9AB6-6CC975DF6134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61364A80-8BB0-489B-AE12-D9F88AB1440F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
